--- a/Prefered_PARX_model_forecast/Resultater_PARX/MSFE_PARX2.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PARX/MSFE_PARX2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,1717 +676,1717 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>11.321449313719265</v>
+        <v>11.321447945206859</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>7.6046045677111165</v>
+        <v>7.6046038790167509</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>6.3365748646981119</v>
+        <v>6.3365708736130806</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>5.2317947285472952</v>
+        <v>5.2317916130121338</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>8.8862540020785747</v>
+        <v>8.886251247221745</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>9.0848376954712968</v>
+        <v>9.084836060913819</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>8.1499849742683317</v>
+        <v>8.1499834575452912</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>8.1263344226693111</v>
+        <v>8.1263331156277712</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>7.3495225676975036</v>
+        <v>7.3495213390484793</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>9.6701894128725012</v>
+        <v>9.6701890855515042</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>9.3904275234090235</v>
+        <v>9.3904274790739599</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>10.725104297239692</v>
+        <v>10.725104849239697</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>9.9727763671235632</v>
+        <v>9.9727768732522808</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>10.194693764957862</v>
+        <v>10.194694187852061</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>9.6804196785129886</v>
+        <v>9.6804200547318242</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>9.152790779287173</v>
+        <v>9.1527911764751089</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>8.7503630254784994</v>
+        <v>8.7503635269693962</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>8.330868572368578</v>
+        <v>8.3308691172686196</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>8.0408113527417662</v>
+        <v>8.0408118736696395</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>8.0606274974712626</v>
+        <v>8.0606278788554757</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>8.7017576144943813</v>
+        <v>8.7017579015404252</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>8.3241347561503627</v>
+        <v>8.3241350272265873</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>8.6508857650785345</v>
+        <v>8.6508860587243976</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>9.3095560250089608</v>
+        <v>9.3095569991804688</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>9.1851876545622808</v>
+        <v>9.185188430345379</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>9.7305767020799969</v>
+        <v>9.7305769785886138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>10.366319033118513</v>
+        <v>10.366319302003477</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>10.290488277207846</v>
+        <v>10.290488349208045</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>10.001957641724065</v>
+        <v>10.001957664997375</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>9.9439449713890387</v>
+        <v>9.9439450906064035</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>9.6440764622543984</v>
+        <v>9.6440765477997719</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>9.4257915741571683</v>
+        <v>9.4257916687232957</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>10.546253783711553</v>
+        <v>10.54625413429094</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>10.288877352361734</v>
+        <v>10.288877717012108</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>10.295668056657661</v>
+        <v>10.295668409938472</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>10.017995425192691</v>
+        <v>10.01799577057484</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>9.9147528497023245</v>
+        <v>9.9147531706077299</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>9.8876323409502458</v>
+        <v>9.8876323440969163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>9.6921578845103618</v>
+        <v>9.6921578307285188</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>9.8624934581857975</v>
+        <v>9.8624935390167536</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>9.7904567007942607</v>
+        <v>9.7904568064359676</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>10.533327328158398</v>
+        <v>10.533327381882721</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>12.458513347635263</v>
+        <v>12.458512635417112</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>12.826204341920947</v>
+        <v>12.826203703487774</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>12.555056520034304</v>
+        <v>12.555055726146907</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>12.491287859765668</v>
+        <v>12.491287070348093</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>14.67911151496431</v>
+        <v>14.67911111082627</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>16.413642093402629</v>
+        <v>16.413641203976042</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>16.975664322983807</v>
+        <v>16.975663147980125</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>20.144276038709449</v>
+        <v>20.144274954186553</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>20.234894170525191</v>
+        <v>20.234893212521587</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>20.961839344932848</v>
+        <v>20.961837741210008</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>22.281709554011385</v>
+        <v>22.281708024740297</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>26.85685547230629</v>
+        <v>26.856854209526169</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>27.222453427631546</v>
+        <v>27.222452039752703</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>28.336047735135931</v>
+        <v>28.33604650480742</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>34.490563525712979</v>
+        <v>34.490562753345273</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>36.41883066351609</v>
+        <v>36.418830478762821</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>38.688755563871744</v>
+        <v>38.688755139710302</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>38.809218603766361</v>
+        <v>38.809218065694289</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>44.038467343929916</v>
+        <v>44.038467883279033</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>49.202201831374069</v>
+        <v>49.202202272129369</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>50.069705152677123</v>
+        <v>50.069705011542602</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>49.851601847318904</v>
+        <v>49.851601485927638</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>52.40960181004251</v>
+        <v>52.409601934453583</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>54.402004286501743</v>
+        <v>54.402001812709344</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>54.393848127574017</v>
+        <v>54.393845888995472</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>56.964005293103654</v>
+        <v>56.964002838940544</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>60.426543287637095</v>
+        <v>60.426540522230553</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>61.729301547192428</v>
+        <v>61.729298324339013</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>61.229648848584816</v>
+        <v>61.22964592213205</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>64.390542439269481</v>
+        <v>64.390539346902116</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>69.840945703844326</v>
+        <v>69.840939682825734</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>68.912062932270644</v>
+        <v>68.912056969016518</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>69.770529613196871</v>
+        <v>69.770523556671264</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>69.124479893177579</v>
+        <v>69.124473826828392</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>70.056303438711552</v>
+        <v>70.056297454875974</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>70.709833379255457</v>
+        <v>70.709827655251857</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>71.027800081572792</v>
+        <v>71.027794502719914</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>73.76165464068356</v>
+        <v>73.761649670895039</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>74.564033818306015</v>
+        <v>74.564029803676988</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>76.80159975079961</v>
+        <v>76.801596059864636</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>78.495885272835153</v>
+        <v>78.495881990936681</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>80.193286659389898</v>
+        <v>80.193282903497433</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>80.192580019008133</v>
+        <v>80.192576233612002</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>83.119108332400771</v>
+        <v>83.119106086366443</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>84.045181488848257</v>
+        <v>84.045180715110646</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>84.314382110969504</v>
+        <v>84.314381670973901</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>86.921153424629793</v>
+        <v>86.921153130908095</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>87.098525904718286</v>
+        <v>87.098525819451353</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>90.898728632803241</v>
+        <v>90.898728391406152</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>92.280252913518936</v>
+        <v>92.280253328628064</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>94.921619707486371</v>
+        <v>94.921620262210013</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>97.751180249373604</v>
+        <v>97.751173161825477</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>101.59772030746802</v>
+        <v>101.59771462528954</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>104.2634935043243</v>
+        <v>104.26348871842646</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>111.10401660165898</v>
+        <v>111.10401230459709</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>115.23150550368511</v>
+        <v>115.23150118646299</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>123.30779744220828</v>
+        <v>123.30779257013646</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>129.16628075686347</v>
+        <v>129.1662778485794</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>132.10586466528349</v>
+        <v>132.10585482248052</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>137.31656384105781</v>
+        <v>137.31655637440437</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>150.8237054821598</v>
+        <v>150.8236967911688</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>160.05421114977082</v>
+        <v>160.05420406643037</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>161.53577087988228</v>
+        <v>161.5357641217455</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>163.24286419819623</v>
+        <v>163.24285787237025</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>170.11312006093428</v>
+        <v>170.11311418365455</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>179.10356773216338</v>
+        <v>179.103568954407</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>180.52732472423855</v>
+        <v>180.52732699952259</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>190.87337981426671</v>
+        <v>190.87338238738326</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>192.98307862543751</v>
+        <v>192.98308143879467</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>198.49305192207896</v>
+        <v>198.49305422693917</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>201.54517825723363</v>
+        <v>201.54518060084581</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>204.12202017809273</v>
+        <v>204.12202319749287</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>207.51499574771353</v>
+        <v>207.51500671271279</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>220.93022903623068</v>
+        <v>220.93024283052199</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>225.35922514590274</v>
+        <v>225.35923801782673</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>229.917673204989</v>
+        <v>229.91768488686918</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>235.40350927452198</v>
+        <v>235.40352199260786</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>236.90188569306537</v>
+        <v>236.90189822416352</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>241.05718533818387</v>
+        <v>241.05719898618963</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>242.49795204106499</v>
+        <v>242.49796583240999</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>242.40294064317681</v>
+        <v>242.40295598139679</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>249.03123531447707</v>
+        <v>249.03125130413846</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>256.68385675944751</v>
+        <v>256.68387331517221</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>256.95725615274563</v>
+        <v>256.95727218493744</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>258.61536403823442</v>
+        <v>258.61538055312235</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>261.05059768538337</v>
+        <v>261.05061322014188</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>260.09829484465064</v>
+        <v>260.09830500116595</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>264.6963416382614</v>
+        <v>264.69635270995479</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>272.39930002962342</v>
+        <v>272.39931180938027</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>279.17060196684366</v>
+        <v>279.17061136509636</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>288.36428642728492</v>
+        <v>288.36429762836417</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>305.25778422335958</v>
+        <v>305.25779709186173</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>317.93168017718034</v>
+        <v>317.93169417618947</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>325.52707458598843</v>
+        <v>325.52706680118524</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>324.08658118063056</v>
+        <v>324.08657363509303</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>339.6492501624478</v>
+        <v>339.64924047699247</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>379.84512539848976</v>
+        <v>379.84511391608373</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>409.95110086258904</v>
+        <v>409.95109361233062</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>430.29222404514968</v>
+        <v>430.29221836223218</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>467.91154255521747</v>
+        <v>467.91154057938445</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>484.96650094496209</v>
+        <v>484.96646560541296</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>526.86468865915117</v>
+        <v>526.86465972444819</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>570.27595243975259</v>
+        <v>570.27592473335142</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>625.03642078537837</v>
+        <v>625.03639568361621</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>688.44097429004398</v>
+        <v>688.44095808288716</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>757.43319281959361</v>
+        <v>757.43317798717214</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>783.99345394089903</v>
+        <v>783.99344638311504</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>806.95909750645217</v>
+        <v>806.95906965313588</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>833.32997073025672</v>
+        <v>833.32996814578462</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>890.82541342397667</v>
+        <v>890.82541158025185</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>919.7806045730805</v>
+        <v>919.78059863529393</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1018.7681061853291</v>
+        <v>1018.7681120656335</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1035.543249846289</v>
+        <v>1035.5432661433942</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1069.5241443748125</v>
+        <v>1069.5241671829403</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1116.6052316741291</v>
+        <v>1116.6052582054058</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1120.7352822509413</v>
+        <v>1120.7352909426829</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1125.0229985225403</v>
+        <v>1125.0230310097954</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1149.5516709036731</v>
+        <v>1149.5517015622215</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1218.2779422044607</v>
+        <v>1218.2779792259355</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1215.1706738653436</v>
+        <v>1215.1707115007848</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1226.8978923351983</v>
+        <v>1226.8979231690953</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1232.8822698703482</v>
+        <v>1232.8822510118923</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1235.0900530171184</v>
+        <v>1235.0900264345153</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1274.7436839665131</v>
+        <v>1274.7436562682287</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1329.8556527562107</v>
+        <v>1329.8556213809384</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>1359.4816708181791</v>
+        <v>1359.4816501845032</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>1388.7381352091252</v>
+        <v>1388.7381153001393</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>1413.9753339957299</v>
+        <v>1413.9753200849059</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>1410.6795648953857</v>
+        <v>1410.6795200325926</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>1414.4335873377199</v>
+        <v>1414.4335377698235</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>1436.2793545300656</v>
+        <v>1436.2793147088719</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>1428.1070951958184</v>
+        <v>1428.1070552755232</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>1438.8849367646185</v>
+        <v>1438.8848960593828</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1443.7353737549238</v>
+        <v>1443.73533218495</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1453.0504419374365</v>
+        <v>1453.0504028235678</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>1451.7590575981935</v>
+        <v>1451.7590296431506</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>1447.8253380493925</v>
+        <v>1447.8253166938221</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>1442.8144240308889</v>
+        <v>1442.8144000553361</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>1443.2300315681537</v>
+        <v>1443.2300060520759</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>1448.7806790429979</v>
+        <v>1448.7806593285761</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1447.4256484193368</v>
+        <v>1447.4256259618392</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>1449.0136618358581</v>
+        <v>1449.0136402566081</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>1455.2655593012976</v>
+        <v>1455.2656664907447</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1447.4890962188085</v>
+        <v>1447.4892032846383</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1446.2385457385817</v>
+        <v>1446.238655165758</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>1439.1193572920104</v>
+        <v>1439.1194650224879</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>1433.9301813170634</v>
+        <v>1433.9302840286337</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>1427.1803933808269</v>
+        <v>1427.1804956154808</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>1424.5727836848857</v>
+        <v>1424.5728855649795</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>1435.9238151438251</v>
+        <v>1435.923979590779</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1428.5308759812856</v>
+        <v>1428.5310392309441</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>1422.3429684701352</v>
+        <v>1422.3431311555926</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>1421.6988467208121</v>
+        <v>1421.6990153387428</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1415.74703796106</v>
+        <v>1415.7472048537943</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1408.8184236480479</v>
+        <v>1408.8185896639982</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>1404.1245012773256</v>
+        <v>1404.1246663683589</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>1410.6510184219453</v>
+        <v>1410.6512081170886</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>1404.2484023956181</v>
+        <v>1404.248590850126</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>1397.6333977621773</v>
+        <v>1397.6335861981679</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>1397.5417396567118</v>
+        <v>1397.541950332464</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>1390.751355951347</v>
+        <v>1390.75156586406</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>1386.6833825841197</v>
+        <v>1386.683591524391</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>1380.6009558822107</v>
+        <v>1380.6011635765251</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1381.11181809711</v>
+        <v>1381.1120139869674</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1374.4775645346733</v>
+        <v>1374.4777594052523</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>1368.5072682810294</v>
+        <v>1368.5074623889086</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>1362.0783977750123</v>
+        <v>1362.0785931217251</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>1356.6484165324168</v>
+        <v>1356.6486090309324</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>1351.0537905058616</v>
+        <v>1351.053982609794</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>1345.2797325869474</v>
+        <v>1345.2799239547537</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>1344.0425137709508</v>
+        <v>1344.042684074476</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>1337.8362486130536</v>
+        <v>1337.8364176766827</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>1333.7862457377469</v>
+        <v>1333.7864137864253</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1327.8620140115092</v>
+        <v>1327.8621814654853</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1322.0610075352122</v>
+        <v>1322.0611728903339</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>1317.3087936047582</v>
+        <v>1317.3089583646129</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1312.157228756088</v>
+        <v>1312.1573925187802</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1309.8607918857704</v>
+        <v>1309.8609579828985</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1305.61601409582</v>
+        <v>1305.6161818483417</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1300.8010086896822</v>
+        <v>1300.8011753322637</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1295.1610373834931</v>
+        <v>1295.1612031204825</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1289.6810369609893</v>
+        <v>1289.6812022238501</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>1288.2722294328921</v>
+        <v>1288.2723944182326</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1282.7712346129533</v>
+        <v>1282.7713993004897</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1278.7734690389766</v>
+        <v>1278.7736381015536</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>1274.631215901007</v>
+        <v>1274.6313838230269</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>1270.6757401059583</v>
+        <v>1270.6759073732755</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>1265.1902638891893</v>
+        <v>1265.1904302798584</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>1259.7703144207749</v>
+        <v>1259.7704801235957</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>1256.8654156359853</v>
+        <v>1256.8655803784379</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>1252.4979297755169</v>
+        <v>1252.4980943390524</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>1247.496249360496</v>
+        <v>1247.4964113784176</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1244.1217033708233</v>
+        <v>1244.1218640842062</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1240.097757365148</v>
+        <v>1240.0979176643268</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1235.0199506420379</v>
+        <v>1235.0201102563178</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1230.0691544267027</v>
+        <v>1230.0693137605638</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>1225.8050498809382</v>
+        <v>1225.8052084268152</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1222.9046487311159</v>
+        <v>1222.9048058840544</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>1218.4373503270217</v>
+        <v>1218.43750859582</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>1213.5715108389811</v>
+        <v>1213.5716679353673</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1210.1218614903946</v>
+        <v>1210.1220176052741</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>1207.4203802329268</v>
+        <v>1207.4205362226514</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>1204.1832043865249</v>
+        <v>1204.1833595375933</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1202.2344142469365</v>
+        <v>1202.2345680811147</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1199.2336910460936</v>
+        <v>1199.2338442498469</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>1194.9364730920042</v>
+        <v>1194.936626540675</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1190.4614701044547</v>
+        <v>1190.461624270665</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1189.4964534127214</v>
+        <v>1189.496606778813</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>1186.5472455019378</v>
+        <v>1186.5473987925263</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>1183.5474950765965</v>
+        <v>1183.5476474009567</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1179.6158509585944</v>
+        <v>1179.6160034793998</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1174.9959328548812</v>
+        <v>1174.9960845328098</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>1170.4852548377908</v>
+        <v>1170.4854063906405</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1167.7103299673167</v>
+        <v>1167.7104827640867</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1164.1043637399659</v>
+        <v>1164.1045145646476</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>1160.5789015003436</v>
+        <v>1160.57905195684</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1157.3837802810592</v>
+        <v>1157.3839297840975</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>1154.2964565578404</v>
+        <v>1154.2966055035286</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>1150.8321402096806</v>
+        <v>1150.8322887589711</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>1146.4632226426504</v>
+        <v>1146.4633708286776</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1143.3979547456333</v>
+        <v>1143.3981008659741</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>1140.4933691399644</v>
+        <v>1140.4935141669323</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1137.2352199527691</v>
+        <v>1137.2353628970436</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1133.8553635436879</v>
+        <v>1133.8555050815139</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1131.8425557021146</v>
+        <v>1131.8426960409467</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>1129.9067155346818</v>
+        <v>1129.9068544629181</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>1126.0650671428573</v>
+        <v>1126.0652077346069</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>1123.2126226991577</v>
+        <v>1123.2127625000353</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>1120.4904846992413</v>
+        <v>1120.4906236568847</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>1116.417691085737</v>
+        <v>1116.4178303420754</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>1112.9268834666532</v>
+        <v>1112.9270213616505</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>1110.4985728214883</v>
+        <v>1110.498710020162</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1106.47814924264</v>
+        <v>1106.4782859583549</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1102.4954823924083</v>
+        <v>1102.4956181822836</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1101.3670651465777</v>
+        <v>1101.3671991587237</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>1098.713657200859</v>
+        <v>1098.7137903634234</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>1095.2547978463128</v>
+        <v>1095.2549307904987</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>1091.47821814401</v>
+        <v>1091.4783509579634</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>1088.534247174608</v>
+        <v>1088.5343792343988</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>1085.1099548931661</v>
+        <v>1085.1100873798734</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1081.2910325123205</v>
+        <v>1081.2911645522181</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>1078.1321605658536</v>
+        <v>1078.1322922119723</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>1074.4863574034855</v>
+        <v>1074.4864874931461</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1070.770516417658</v>
+        <v>1070.7706461625655</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1069.300940194534</v>
+        <v>1069.3010685276302</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>1067.6611234375707</v>
+        <v>1067.6612514212779</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>1064.3452113711348</v>
+        <v>1064.3453390084437</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>1062.15156166927</v>
+        <v>1062.1516866856427</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>1058.57050768668</v>
+        <v>1058.5706321437656</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>1056.269126034271</v>
+        <v>1056.2692467532079</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>1054.6852942035107</v>
+        <v>1054.6854150503634</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>1055.0789133156011</v>
+        <v>1055.079033769244</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>1052.8981495948012</v>
+        <v>1052.8982698277905</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1049.7643859358147</v>
+        <v>1049.7645044586118</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1046.2431109634199</v>
+        <v>1046.2432290485435</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>1043.4112016022507</v>
+        <v>1043.41131868138</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>1042.6547273066731</v>
+        <v>1042.6548445601293</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>1039.1934331472162</v>
+        <v>1039.1935499972458</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>1038.2452181449339</v>
+        <v>1038.2453350899782</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>1035.3557464991238</v>
+        <v>1035.3558628232086</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>1032.5060854382143</v>
+        <v>1032.5062020198075</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>1029.3964011049775</v>
+        <v>1029.3965183578728</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>1026.7168747048552</v>
+        <v>1026.7169907776392</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1024.39810640423</v>
+        <v>1024.3982226751048</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1021.6542960096521</v>
+        <v>1021.6544104791702</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>1019.4954982702586</v>
+        <v>1019.4956109427717</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>1016.994662756762</v>
+        <v>1016.9947750789746</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>1013.7511220454579</v>
+        <v>1013.7512339458494</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>1011.8123482374912</v>
+        <v>1011.8124603161434</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>1009.3907139973926</v>
+        <v>1009.3908266586091</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>1006.5582335605042</v>
+        <v>1006.5583463821362</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>1003.4051888187054</v>
+        <v>1003.4053013306168</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>1000.4985114457156</v>
+        <v>1000.4986240663046</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>997.52539176618961</v>
+        <v>997.52550404889314</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>994.39006891597887</v>
+        <v>994.39018091339062</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>991.96756784707657</v>
+        <v>991.96768060746933</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>988.9369675617138</v>
+        <v>988.93708005908627</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>987.54294287280572</v>
+        <v>987.54305487475506</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>984.49238524491921</v>
+        <v>984.49249696901506</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>981.48123794467961</v>
+        <v>981.48134929617788</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>978.53714941228759</v>
+        <v>978.53726038863374</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>975.80722580643123</v>
+        <v>975.80733619571686</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>973.04994986931626</v>
+        <v>973.05005934068208</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>970.14717358850544</v>
+        <v>970.14728255148975</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>967.25129315588129</v>
+        <v>967.25140191935679</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>964.3175709950566</v>
+        <v>964.31767939034501</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>961.51485582579676</v>
+        <v>961.51496389966269</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>958.85551622526657</v>
+        <v>958.855624001725</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>955.98082769721248</v>
+        <v>955.98093524602757</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>953.11287898005071</v>
+        <v>953.11298620497428</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>950.38184415882927</v>
+        <v>950.38195105717</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>947.58413910944716</v>
+        <v>947.5842456536036</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>944.77127256557594</v>
+        <v>944.77137895077021</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>942.01162770123096</v>
+        <v>942.01173380616365</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>939.25618385574739</v>
+        <v>939.25628962332007</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>936.48567044213712</v>
+        <v>936.48577589516071</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>933.73399105343617</v>
+        <v>933.73409613364925</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>931.00083763315638</v>
+        <v>931.00094240409487</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>928.35361458434329</v>
+        <v>928.3537189960374</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>925.66624726246641</v>
+        <v>925.66635143078418</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>922.98009121136943</v>
+        <v>922.98019510905101</v>
       </c>
     </row>
   </sheetData>
